--- a/docs/database/Sql_修訂.xlsx
+++ b/docs/database/Sql_修訂.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GameForum\FinalProject_GameForum\docs\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6845717-6E0C-4DE5-ACBA-8EAFB742B0E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B697AE3-DE32-4FE1-A5F4-8ABE25D49A17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{398CB260-A11B-40D5-9D47-F5309714621C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="119">
   <si>
     <t>新聞區</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -415,10 +415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>密碼( char(64) )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>類別( nvarchar(24) )</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,6 +500,14 @@
   </si>
   <si>
     <t>客服表單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密碼( varchar(64) )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分(double)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,8 +952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6196660F-4888-4018-8538-EDC00B90FF4D}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1001,10 +1005,10 @@
         <v>35</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1015,13 +1019,13 @@
         <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>38</v>
@@ -1036,13 +1040,13 @@
         <v>36</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1065,7 +1069,7 @@
         <v>40</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1113,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>42</v>
@@ -1121,7 +1125,9 @@
       <c r="I5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3" t="s">
+        <v>118</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
@@ -1133,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1209,10 +1215,10 @@
         <v>41</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -1236,13 +1242,13 @@
         <v>89</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1283,7 +1289,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>9</v>
@@ -1348,7 +1354,7 @@
         <v>46</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>36</v>
@@ -1358,16 +1364,16 @@
     </row>
     <row r="15" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>41</v>
@@ -1382,7 +1388,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>5</v>
@@ -1738,7 +1744,7 @@
         <v>30</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -1748,13 +1754,13 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="E41" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="G41" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1768,13 +1774,13 @@
         <v>30</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="G42" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1786,10 +1792,10 @@
         <v>53</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="G43" s="7"/>
     </row>
